--- a/advanced.xlsx
+++ b/advanced.xlsx
@@ -1,28 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BN Gaming\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE0B802-FCBB-433E-9124-C2BC4193BAF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="2760" tabRatio="595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="2760" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId2"/>
+    <sheet name="conditional-formatting" sheetId="2" r:id="rId3"/>
+    <sheet name="data-validation-CD" sheetId="3" r:id="rId4"/>
+    <sheet name="pivot" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet10" sheetId="21" r:id="rId6"/>
+    <sheet name="Scenario Summary" sheetId="9" r:id="rId7"/>
+    <sheet name="Scenario Summary 2" sheetId="10" r:id="rId8"/>
+    <sheet name="consolidate" sheetId="14" r:id="rId9"/>
+    <sheet name="c2" sheetId="15" r:id="rId10"/>
+    <sheet name="Sheet6" sheetId="17" r:id="rId11"/>
+    <sheet name="macro" sheetId="18" r:id="rId12"/>
+    <sheet name="Scenario Summary 3" sheetId="11" r:id="rId13"/>
+    <sheet name="Scenario PivotTable" sheetId="12" r:id="rId14"/>
+    <sheet name="scenerio" sheetId="6" r:id="rId15"/>
+    <sheet name="Sheet8" sheetId="19" r:id="rId16"/>
+    <sheet name="Sheet12" sheetId="23" r:id="rId17"/>
+    <sheet name="m1" sheetId="24" r:id="rId18"/>
+    <sheet name="m2" sheetId="25" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="China">Sheet3!$E$6:$E$8</definedName>
-    <definedName name="India">Sheet3!$F$6:$F$8</definedName>
-    <definedName name="Pakistan">Sheet3!$C$6:$C$10</definedName>
-    <definedName name="Turkey">Sheet3!$D$6:$D$9</definedName>
+    <definedName name="board">scenerio!$I$12</definedName>
+    <definedName name="buttons">scenerio!$I$11</definedName>
+    <definedName name="China">'data-validation-CD'!$E$6:$E$8</definedName>
+    <definedName name="India">'data-validation-CD'!$F$6:$F$8</definedName>
+    <definedName name="Pakistan">'data-validation-CD'!$C$6:$C$10</definedName>
+    <definedName name="screw">scenerio!$I$13</definedName>
+    <definedName name="total">scenerio!$I$14</definedName>
+    <definedName name="Turkey">'data-validation-CD'!$D$6:$D$9</definedName>
+    <definedName name="wire">scenerio!$I$10</definedName>
+    <definedName name="wood">scenerio!$I$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId20"/>
+    <pivotCache cacheId="1" r:id="rId21"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="171">
   <si>
     <t>column</t>
   </si>
@@ -100,15 +127,6 @@
     <t>Rafay</t>
   </si>
   <si>
-    <t>MONTH</t>
-  </si>
-  <si>
-    <t>january</t>
-  </si>
-  <si>
-    <t>february</t>
-  </si>
-  <si>
     <t>march</t>
   </si>
   <si>
@@ -118,27 +136,6 @@
     <t>may</t>
   </si>
   <si>
-    <t>june</t>
-  </si>
-  <si>
-    <t>july</t>
-  </si>
-  <si>
-    <t>august</t>
-  </si>
-  <si>
-    <t>september</t>
-  </si>
-  <si>
-    <t>october</t>
-  </si>
-  <si>
-    <t>november</t>
-  </si>
-  <si>
-    <t>december</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -275,13 +272,313 @@
   </si>
   <si>
     <t>col</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>hamza</t>
+  </si>
+  <si>
+    <t>haris</t>
+  </si>
+  <si>
+    <t>mehmood</t>
+  </si>
+  <si>
+    <t>zafir</t>
+  </si>
+  <si>
+    <t>zain</t>
+  </si>
+  <si>
+    <t>hammad</t>
+  </si>
+  <si>
+    <t>shaheer</t>
+  </si>
+  <si>
+    <t>rafay</t>
+  </si>
+  <si>
+    <t>electronics</t>
+  </si>
+  <si>
+    <t>garments</t>
+  </si>
+  <si>
+    <t>furniture</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of 2021</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>screw</t>
+  </si>
+  <si>
+    <t>buttons</t>
+  </si>
+  <si>
+    <t>$I$9</t>
+  </si>
+  <si>
+    <t>$I$10</t>
+  </si>
+  <si>
+    <t>$I$11</t>
+  </si>
+  <si>
+    <t>$I$12</t>
+  </si>
+  <si>
+    <t>$I$13</t>
+  </si>
+  <si>
+    <t>$I$14</t>
+  </si>
+  <si>
+    <t>Created by kinza on 20-06-2022</t>
+  </si>
+  <si>
+    <t>Scenario Summary</t>
+  </si>
+  <si>
+    <t>Changing Cells:</t>
+  </si>
+  <si>
+    <t>Current Values:</t>
+  </si>
+  <si>
+    <t>Result Cells:</t>
+  </si>
+  <si>
+    <t>Notes:  Current Values column represents values of changing cells at</t>
+  </si>
+  <si>
+    <t>time Scenario Summary Report was created.  Changing cells for each</t>
+  </si>
+  <si>
+    <t>scenario are highlighted in gray.</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>components</t>
+  </si>
+  <si>
+    <t>$I$9:$I$13 by</t>
+  </si>
+  <si>
+    <t>kinza</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>rice/kg</t>
+  </si>
+  <si>
+    <t>qty/kg</t>
+  </si>
+  <si>
+    <t>price/kg</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>sana</t>
+  </si>
+  <si>
+    <t>aqsa</t>
+  </si>
+  <si>
+    <t>rafiya</t>
+  </si>
+  <si>
+    <t>ashad</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>price/product</t>
+  </si>
+  <si>
+    <t>total_price</t>
+  </si>
+  <si>
+    <t>sub total</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>keyboard</t>
+  </si>
+  <si>
+    <t>n n nj;n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n n </t>
+  </si>
+  <si>
+    <t>web developer</t>
+  </si>
+  <si>
+    <t>project manager</t>
+  </si>
+  <si>
+    <t>faculty</t>
+  </si>
+  <si>
+    <t>hurarira</t>
+  </si>
+  <si>
+    <t>fatima</t>
+  </si>
+  <si>
+    <t>total-price</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>price /kg</t>
+  </si>
+  <si>
+    <t>produt</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>t-price</t>
+  </si>
+  <si>
+    <t>Joining date</t>
+  </si>
+  <si>
+    <t>E-Id</t>
+  </si>
+  <si>
+    <t>E-Name</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Joining Date</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Kinzaaptech@gmail.com</t>
+  </si>
+  <si>
+    <t>Laraib Khan</t>
+  </si>
+  <si>
+    <t>L12@gmail.com</t>
+  </si>
+  <si>
+    <t>Evening</t>
+  </si>
+  <si>
+    <t>Sana@gmail.com</t>
+  </si>
+  <si>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>Person</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,8 +601,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,8 +675,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -449,11 +842,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -493,9 +968,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -503,11 +975,141 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -515,20 +1117,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -593,190 +1181,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
@@ -794,108 +1198,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -906,88 +1213,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1005,28 +1230,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1133,13 +1336,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1153,6 +1349,35 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1185,18 +1410,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1270,13 +1483,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1289,6 +1495,25 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1304,54 +1529,40 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$J$1" fmlaRange="$B$3:$B$14" sel="9" val="4"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$P$1" fmlaRange="$B$3:$B$14" sel="9" val="4"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp macro="[0]!faculty" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8162925" y="314325"/>
-          <a:ext cx="4057650" cy="1733550"/>
+          <a:off x="2257425" y="85725"/>
+          <a:ext cx="1971675" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1370,140 +1581,373 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>faculty</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Drop Down 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Drop Down 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!Macro3" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD77482-FA72-4CE9-B694-63A1BC847787}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="1266825"/>
+          <a:ext cx="1619250" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Save</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="kinza" refreshedDate="44727.427697222221" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="9" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="D2:G11" sheet="pivot"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="person" numFmtId="0">
+      <sharedItems count="9">
+        <s v="ali"/>
+        <s v="hamza"/>
+        <s v="haris"/>
+        <s v="mehmood"/>
+        <s v="zafir"/>
+        <s v="zain"/>
+        <s v="hammad"/>
+        <s v="shaheer"/>
+        <s v="rafay"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="department" numFmtId="0">
+      <sharedItems count="3">
+        <s v="electronics"/>
+        <s v="garments"/>
+        <s v="furniture"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="2021" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1200" maxValue="30000"/>
+    </cacheField>
+    <cacheField name="2022" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2000" maxValue="45000"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="kinza" refreshedDate="44732.052152546297" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{642816F5-2415-4D67-AFCA-18F4068FF245}">
+  <cacheSource type="scenario"/>
+  <cacheFields count="3">
+    <cacheField name="$I$9:$I$13" numFmtId="0">
+      <sharedItems containsNonDate="0" count="2">
+        <s v="low"/>
+        <s v="high"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="$I$9:$I$13 by" numFmtId="0">
+      <sharedItems containsNonDate="0" count="1">
+        <s v="kinza"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="res total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1300" maxValue="1600" count="2">
+        <n v="1300"/>
+        <n v="1600"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="9">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4000"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="12000"/>
+    <n v="7000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="20000"/>
+    <n v="45000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="2000"/>
+    <n v="32000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="27000"/>
+    <n v="12000"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="12000"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="1200"/>
+    <n v="24000"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="30000"/>
+    <n v="23000"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="23000"/>
+    <n v="24000"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J10:K23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of 2021" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AEA01ADB-C21E-472D-A4B5-5BEDB766D148}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="total" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C2:H15" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="78" tableBorderDxfId="79" totalsRowBorderDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="C2:H15" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="76"/>
-    <tableColumn id="2" name="Salary" dataDxfId="75"/>
-    <tableColumn id="3" name="Incentive" dataDxfId="74"/>
-    <tableColumn id="4" name="Leaves" dataDxfId="73"/>
-    <tableColumn id="5" name="Deduction" dataDxfId="71">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Salary" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Incentive" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Leaves" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Deduction" dataDxfId="26">
       <calculatedColumnFormula>Table1[[#This Row],[Salary]]/30*Table1[[#This Row],[Leaves]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Final Salary" dataDxfId="70">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Final Salary" dataDxfId="25">
       <calculatedColumnFormula>Table1[[#This Row],[Salary]]-Table1[[#This Row],[Deduction]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1512,13 +1956,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C4:G13" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" headerRowBorderDxfId="68" tableBorderDxfId="69" totalsRowBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="C4:G13" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <tableColumns count="5">
-    <tableColumn id="1" name="Product" dataDxfId="66"/>
-    <tableColumn id="2" name="P-ID" dataDxfId="65"/>
-    <tableColumn id="3" name="Quantity" dataDxfId="64"/>
-    <tableColumn id="4" name="Price" dataDxfId="63"/>
-    <tableColumn id="5" name="Total" dataDxfId="60">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Product" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="P-ID" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Quantity" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Price" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Total" dataDxfId="15">
       <calculatedColumnFormula>Table2[[#This Row],[Price]]*Table2[[#This Row],[Quantity]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1788,11 +2232,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:XEN15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:XEL15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,25 +2247,18 @@
     <col min="4" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
     <col min="8" max="8" width="26.140625" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="16368" max="16368" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="16366" max="16366" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16 16367:16368" x14ac:dyDescent="0.25">
-      <c r="J1">
+    <row r="1" spans="2:14 16365:16366" x14ac:dyDescent="0.25">
+      <c r="N1">
         <v>9</v>
       </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="P1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="2:16 16367:16368" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="2" spans="2:14 16365:16366" x14ac:dyDescent="0.25">
+      <c r="B2" s="22"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1841,10 +2278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:16 16367:16368" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="3" spans="2:14 16365:16366" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1865,18 +2299,21 @@
         <f>Table1[[#This Row],[Salary]]-Table1[[#This Row],[Deduction]]</f>
         <v>18666.666666666668</v>
       </c>
-      <c r="XEM3" t="s">
+      <c r="J3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="XEK3" t="s">
         <v>0</v>
       </c>
-      <c r="XEN3">
+      <c r="XEL3">
         <f>COLUMNS(2:2)</f>
         <v>16384</v>
       </c>
     </row>
-    <row r="4" spans="2:16 16367:16368" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="4" spans="2:14 16365:16366" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1897,18 +2334,22 @@
         <f>Table1[[#This Row],[Salary]]-Table1[[#This Row],[Deduction]]</f>
         <v>29000</v>
       </c>
-      <c r="XEM4" t="s">
+      <c r="J4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4">
+        <f>VLOOKUP(J4,Table1[],2,0)</f>
+        <v>34000</v>
+      </c>
+      <c r="XEK4" t="s">
         <v>1</v>
       </c>
-      <c r="XEN4">
-        <f>ROWS(XEK:XEK)</f>
+      <c r="XEL4">
+        <f>ROWS(XEI:XEI)</f>
         <v>1048576</v>
       </c>
     </row>
-    <row r="5" spans="2:16 16367:16368" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="5" spans="2:14 16365:16366" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1929,18 +2370,15 @@
         <f>Table1[[#This Row],[Salary]]-Table1[[#This Row],[Deduction]]</f>
         <v>30600</v>
       </c>
-      <c r="XEM5" t="s">
+      <c r="XEK5" t="s">
         <v>2</v>
       </c>
-      <c r="XEN5">
-        <f>XEN3*XEN4</f>
+      <c r="XEL5">
+        <f>XEL3*XEL4</f>
         <v>17179869184</v>
       </c>
     </row>
-    <row r="6" spans="2:16 16367:16368" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="6" spans="2:14 16365:16366" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1962,10 +2400,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="7" spans="2:16 16367:16368" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
+    <row r="7" spans="2:14 16365:16366" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1987,10 +2422,7 @@
         <v>21466.666666666668</v>
       </c>
     </row>
-    <row r="8" spans="2:16 16367:16368" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
+    <row r="8" spans="2:14 16365:16366" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
@@ -2012,10 +2444,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="9" spans="2:16 16367:16368" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
+    <row r="9" spans="2:14 16365:16366" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
@@ -2037,10 +2466,7 @@
         <v>34666.666666666664</v>
       </c>
     </row>
-    <row r="10" spans="2:16 16367:16368" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="10" spans="2:14 16365:16366" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
@@ -2062,10 +2488,7 @@
         <v>32666.666666666668</v>
       </c>
     </row>
-    <row r="11" spans="2:16 16367:16368" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="11" spans="2:14 16365:16366" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
@@ -2087,10 +2510,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="12" spans="2:16 16367:16368" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
+    <row r="12" spans="2:14 16365:16366" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
@@ -2112,10 +2532,7 @@
         <v>19333.333333333332</v>
       </c>
     </row>
-    <row r="13" spans="2:16 16367:16368" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
+    <row r="13" spans="2:14 16365:16366" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
@@ -2137,10 +2554,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="14" spans="2:16 16367:16368" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
+    <row r="14" spans="2:14 16365:16366" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
@@ -2161,13 +2575,9 @@
         <f>Table1[[#This Row],[Salary]]-Table1[[#This Row],[Deduction]]</f>
         <v>30000</v>
       </c>
-      <c r="L14" t="b">
-        <f>AND(MONTH(1&amp;$B3)&gt;=K1,MONTH(1&amp;$B3)&lt;=P1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16 16367:16368" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
+    </row>
+    <row r="15" spans="2:14 16365:16366" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
       <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
@@ -2190,77 +2600,4625 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B14">
-    <cfRule type="expression" dxfId="49" priority="1">
-      <formula>B3=$J$1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId4" name="Drop Down 1">
-              <controlPr defaultSize="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>104775</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>114300</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId5" name="Drop Down 2">
-              <controlPr defaultSize="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>266700</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>16</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869D840E-1685-4230-A48B-2AD6A8204920}">
+  <dimension ref="B3:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>67000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="1">
+        <v>23000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>23000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12345</v>
+      </c>
+      <c r="F5" s="1">
+        <v>56766</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="1">
+        <v>23456</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>56700</v>
+      </c>
+      <c r="F6" s="1">
+        <v>55544</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="1">
+        <v>34590</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43211</v>
+      </c>
+      <c r="E7" s="1">
+        <v>34000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3334</v>
+      </c>
+      <c r="G7" s="1">
+        <v>55567</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5690</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E8" s="1">
+        <v>34444</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4433</v>
+      </c>
+      <c r="G8" s="1">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3211</v>
+      </c>
+      <c r="D9" s="1">
+        <v>34000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>34555</v>
+      </c>
+      <c r="F9" s="1">
+        <v>34590</v>
+      </c>
+      <c r="G9" s="1">
+        <v>66666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1CC23E-B780-48B5-9F04-105BE6E1F1E0}">
+  <dimension ref="B3:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="5" max="9" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4">
+        <f>'c2'!$C$4</f>
+        <v>20000</v>
+      </c>
+      <c r="E4">
+        <f>'c2'!$D$4</f>
+        <v>12000</v>
+      </c>
+      <c r="F4">
+        <f>'c2'!$E$4</f>
+        <v>45000</v>
+      </c>
+      <c r="G4">
+        <f>'c2'!$F$4</f>
+        <v>67000</v>
+      </c>
+      <c r="H4">
+        <f>'c2'!$G$4</f>
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5">
+        <f>consolidate!$C$4</f>
+        <v>23400</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="2:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D4:D5)</f>
+        <v>43400</v>
+      </c>
+      <c r="E6" s="13">
+        <f>SUM(E4:E5)</f>
+        <v>12000</v>
+      </c>
+      <c r="F6" s="13">
+        <f>SUM(F4:F5)</f>
+        <v>45000</v>
+      </c>
+      <c r="G6" s="14">
+        <f>SUM(G4:G5)</f>
+        <v>67000</v>
+      </c>
+      <c r="H6" s="13">
+        <f>G6*F6</f>
+        <v>3015000000</v>
+      </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7">
+        <f>'c2'!$C$5</f>
+        <v>23000</v>
+      </c>
+      <c r="E7" s="13">
+        <f>'c2'!$D$5</f>
+        <v>23000</v>
+      </c>
+      <c r="F7" s="13">
+        <f>'c2'!$E$5</f>
+        <v>12345</v>
+      </c>
+      <c r="G7" s="14">
+        <f>'c2'!$F$5</f>
+        <v>56766</v>
+      </c>
+      <c r="H7" s="13">
+        <f>'c2'!$G$5</f>
+        <v>3455</v>
+      </c>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="2:9" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8">
+        <f>consolidate!$C$5</f>
+        <v>34000</v>
+      </c>
+      <c r="E8" s="13">
+        <f>consolidate!$D$5</f>
+        <v>45000</v>
+      </c>
+      <c r="F8" s="13" t="str">
+        <f>consolidate!$E$5</f>
+        <v>name</v>
+      </c>
+      <c r="G8" s="14" t="str">
+        <f>consolidate!$F$5</f>
+        <v>qty</v>
+      </c>
+      <c r="H8" s="13" t="str">
+        <f>consolidate!$G$5</f>
+        <v>price/product</v>
+      </c>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9">
+        <f>SUM(D7:D8)</f>
+        <v>57000</v>
+      </c>
+      <c r="E9" s="13">
+        <f>SUM(E7:E8)</f>
+        <v>68000</v>
+      </c>
+      <c r="F9" s="13">
+        <f>SUM(F7:F8)</f>
+        <v>12345</v>
+      </c>
+      <c r="G9" s="14">
+        <f>SUM(G7:G8)</f>
+        <v>56766</v>
+      </c>
+      <c r="H9" s="13">
+        <f>SUM(H7:H8)</f>
+        <v>3455</v>
+      </c>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10">
+        <f>'c2'!$C$6</f>
+        <v>23456</v>
+      </c>
+      <c r="E10" s="13">
+        <f>'c2'!$D$6</f>
+        <v>45000</v>
+      </c>
+      <c r="F10" s="13">
+        <f>'c2'!$E$6</f>
+        <v>56700</v>
+      </c>
+      <c r="G10" s="14">
+        <f>'c2'!$F$6</f>
+        <v>55544</v>
+      </c>
+      <c r="H10" s="13">
+        <f>'c2'!$G$6</f>
+        <v>4566</v>
+      </c>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="2:9" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11">
+        <f>consolidate!$C$6</f>
+        <v>45300</v>
+      </c>
+      <c r="E11" s="13">
+        <f>consolidate!$D$6</f>
+        <v>34000</v>
+      </c>
+      <c r="F11" s="13">
+        <f>consolidate!$E$6</f>
+        <v>45600</v>
+      </c>
+      <c r="G11" s="14">
+        <f>consolidate!$F$6</f>
+        <v>34211</v>
+      </c>
+      <c r="H11" s="13">
+        <f>consolidate!$G$6</f>
+        <v>5600</v>
+      </c>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="2:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D10:D11)</f>
+        <v>68756</v>
+      </c>
+      <c r="E12" s="13">
+        <f>SUM(E10:E11)</f>
+        <v>79000</v>
+      </c>
+      <c r="F12" s="13">
+        <f>SUM(F10:F11)</f>
+        <v>102300</v>
+      </c>
+      <c r="G12" s="14">
+        <f>SUM(G10:G11)</f>
+        <v>89755</v>
+      </c>
+      <c r="H12" s="13">
+        <f>SUM(H10:H11)</f>
+        <v>10166</v>
+      </c>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13">
+        <f>'c2'!$C$7</f>
+        <v>34590</v>
+      </c>
+      <c r="E13">
+        <f>'c2'!$D$7</f>
+        <v>43211</v>
+      </c>
+      <c r="F13">
+        <f>'c2'!$E$7</f>
+        <v>34000</v>
+      </c>
+      <c r="G13">
+        <f>'c2'!$F$7</f>
+        <v>3334</v>
+      </c>
+      <c r="H13">
+        <f>'c2'!$G$7</f>
+        <v>55567</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14">
+        <f>consolidate!$C$7</f>
+        <v>34222</v>
+      </c>
+      <c r="E14" s="27">
+        <f>consolidate!$D$7</f>
+        <v>12345</v>
+      </c>
+      <c r="F14" s="27">
+        <f>consolidate!$E$7</f>
+        <v>12345</v>
+      </c>
+      <c r="G14">
+        <f>consolidate!$F$7</f>
+        <v>23450</v>
+      </c>
+      <c r="H14">
+        <f>consolidate!$G$7</f>
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D13:D14)</f>
+        <v>68812</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E13:E14)</f>
+        <v>55556</v>
+      </c>
+      <c r="F15">
+        <f>SUM(F13:F14)</f>
+        <v>46345</v>
+      </c>
+      <c r="G15">
+        <f>SUM(G13:G14)</f>
+        <v>26784</v>
+      </c>
+      <c r="H15">
+        <f>SUM(H13:H14)</f>
+        <v>67912</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16">
+        <f>'c2'!$C$8</f>
+        <v>5690</v>
+      </c>
+      <c r="E16">
+        <f>'c2'!$D$8</f>
+        <v>2345</v>
+      </c>
+      <c r="F16">
+        <f>'c2'!$E$8</f>
+        <v>34444</v>
+      </c>
+      <c r="G16">
+        <f>'c2'!$F$8</f>
+        <v>4433</v>
+      </c>
+      <c r="H16">
+        <f>'c2'!$G$8</f>
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17">
+        <f>consolidate!$C$8</f>
+        <v>12000</v>
+      </c>
+      <c r="E17">
+        <f>consolidate!$D$8</f>
+        <v>6755</v>
+      </c>
+      <c r="F17">
+        <f>consolidate!$E$8</f>
+        <v>23459</v>
+      </c>
+      <c r="G17">
+        <f>consolidate!$F$8</f>
+        <v>23411</v>
+      </c>
+      <c r="H17">
+        <f>consolidate!$G$8</f>
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D16:D17)</f>
+        <v>17690</v>
+      </c>
+      <c r="E18">
+        <f>SUM(E16:E17)</f>
+        <v>9100</v>
+      </c>
+      <c r="F18">
+        <f>SUM(F16:F17)</f>
+        <v>57903</v>
+      </c>
+      <c r="G18">
+        <f>SUM(G16:G17)</f>
+        <v>27844</v>
+      </c>
+      <c r="H18">
+        <f>SUM(H16:H17)</f>
+        <v>87532</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19">
+        <f>'c2'!$C$9</f>
+        <v>3211</v>
+      </c>
+      <c r="E19">
+        <f>'c2'!$D$9</f>
+        <v>34000</v>
+      </c>
+      <c r="F19">
+        <f>'c2'!$E$9</f>
+        <v>34555</v>
+      </c>
+      <c r="G19">
+        <f>'c2'!$F$9</f>
+        <v>34590</v>
+      </c>
+      <c r="H19">
+        <f>'c2'!$G$9</f>
+        <v>66666</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20">
+        <f>consolidate!$C$9</f>
+        <v>45699</v>
+      </c>
+      <c r="E20">
+        <f>consolidate!$D$9</f>
+        <v>45600</v>
+      </c>
+      <c r="F20">
+        <f>consolidate!$E$9</f>
+        <v>7800</v>
+      </c>
+      <c r="G20">
+        <f>consolidate!$F$9</f>
+        <v>34221</v>
+      </c>
+      <c r="H20">
+        <f>consolidate!$G$9</f>
+        <v>34221</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21">
+        <f>SUM(D19:D20)</f>
+        <v>48910</v>
+      </c>
+      <c r="E21">
+        <f>SUM(E19:E20)</f>
+        <v>79600</v>
+      </c>
+      <c r="F21">
+        <f>SUM(F19:F20)</f>
+        <v>42355</v>
+      </c>
+      <c r="G21">
+        <f>SUM(G19:G20)</f>
+        <v>68811</v>
+      </c>
+      <c r="H21">
+        <f>SUM(H19:H20)</f>
+        <v>100887</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate topLabels="1" link="1">
+    <dataRefs count="2">
+      <dataRef ref="B3:G9" sheet="c2"/>
+      <dataRef ref="B3:G9" sheet="consolidate"/>
+    </dataRefs>
+  </dataConsolidate>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCCD272-1EA4-44B5-9ED8-29680BC2A789}">
+  <dimension ref="B3:O376"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7:O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="9" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E5" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13">
+        <v>400</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1200</v>
+      </c>
+      <c r="H6" s="13">
+        <f>G6*F6</f>
+        <v>480000</v>
+      </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14">
+        <v>34</v>
+      </c>
+      <c r="H7" s="13">
+        <v>4432</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="L7" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" s="50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14">
+        <v>43</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1200</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="L8" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="51">
+        <v>3</v>
+      </c>
+      <c r="N8" s="51">
+        <v>2300</v>
+      </c>
+      <c r="O8" s="52">
+        <f>N8*M8</f>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="22"/>
+      <c r="L9" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" s="51">
+        <v>4</v>
+      </c>
+      <c r="N9" s="51">
+        <v>5600</v>
+      </c>
+      <c r="O9" s="52">
+        <f t="shared" ref="O9:O13" si="0">N9*M9</f>
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="22"/>
+      <c r="L10" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" s="51">
+        <v>5</v>
+      </c>
+      <c r="N10" s="51">
+        <v>4321</v>
+      </c>
+      <c r="O10" s="52">
+        <f t="shared" si="0"/>
+        <v>21605</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="22"/>
+      <c r="L11" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="M11" s="51">
+        <v>68</v>
+      </c>
+      <c r="N11" s="51">
+        <v>4400</v>
+      </c>
+      <c r="O11" s="52">
+        <f t="shared" si="0"/>
+        <v>299200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="22"/>
+      <c r="L12" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="51">
+        <v>5</v>
+      </c>
+      <c r="N12" s="51">
+        <v>7800</v>
+      </c>
+      <c r="O12" s="52">
+        <f t="shared" si="0"/>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L13" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" s="51">
+        <v>3</v>
+      </c>
+      <c r="N13" s="51">
+        <v>8700</v>
+      </c>
+      <c r="O13" s="52">
+        <f t="shared" si="0"/>
+        <v>26100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E14" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="57"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E15" s="56">
+        <f>SUM(H6:H12)</f>
+        <v>485632</v>
+      </c>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+    </row>
+    <row r="181" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+    </row>
+    <row r="194" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+    </row>
+    <row r="195" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+    </row>
+    <row r="196" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+    </row>
+    <row r="198" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+    </row>
+    <row r="199" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+    </row>
+    <row r="205" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+    </row>
+    <row r="206" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+    </row>
+    <row r="207" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+    </row>
+    <row r="208" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+    </row>
+    <row r="209" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+    </row>
+    <row r="210" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+    </row>
+    <row r="211" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+    </row>
+    <row r="212" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+    </row>
+    <row r="213" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+    </row>
+    <row r="214" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+    </row>
+    <row r="215" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+    </row>
+    <row r="216" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+    </row>
+    <row r="217" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+    </row>
+    <row r="218" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+    </row>
+    <row r="219" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+    </row>
+    <row r="220" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+    </row>
+    <row r="221" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+    </row>
+    <row r="222" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+    </row>
+    <row r="223" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+    </row>
+    <row r="224" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+    </row>
+    <row r="225" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+    </row>
+    <row r="226" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+    </row>
+    <row r="227" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+    </row>
+    <row r="228" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+    </row>
+    <row r="229" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+    </row>
+    <row r="232" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D232" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E232" s="59"/>
+      <c r="F232" s="59"/>
+    </row>
+    <row r="233" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D233" s="60"/>
+      <c r="E233" s="60"/>
+      <c r="F233" s="60"/>
+    </row>
+    <row r="234" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+    </row>
+    <row r="235" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+    </row>
+    <row r="236" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+    </row>
+    <row r="237" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+    </row>
+    <row r="238" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+    </row>
+    <row r="239" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+    </row>
+    <row r="240" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+    </row>
+    <row r="241" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+    </row>
+    <row r="242" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+    </row>
+    <row r="243" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+    </row>
+    <row r="244" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+    </row>
+    <row r="245" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+    </row>
+    <row r="246" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+    </row>
+    <row r="247" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+    </row>
+    <row r="248" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+    </row>
+    <row r="249" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+    </row>
+    <row r="250" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+    </row>
+    <row r="251" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+    </row>
+    <row r="252" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+    </row>
+    <row r="253" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+    </row>
+    <row r="254" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+    </row>
+    <row r="255" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+    </row>
+    <row r="256" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+    </row>
+    <row r="257" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+    </row>
+    <row r="258" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+    </row>
+    <row r="259" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+    </row>
+    <row r="260" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+    </row>
+    <row r="261" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+    </row>
+    <row r="262" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+    </row>
+    <row r="263" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+    </row>
+    <row r="264" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+    </row>
+    <row r="265" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+    </row>
+    <row r="266" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+    </row>
+    <row r="267" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+    </row>
+    <row r="268" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+    </row>
+    <row r="269" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+    </row>
+    <row r="270" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+    </row>
+    <row r="271" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+    </row>
+    <row r="272" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+    </row>
+    <row r="273" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+    </row>
+    <row r="274" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+    </row>
+    <row r="275" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+    </row>
+    <row r="276" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+    </row>
+    <row r="277" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+    </row>
+    <row r="278" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+    </row>
+    <row r="279" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+    </row>
+    <row r="280" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+    </row>
+    <row r="281" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+    </row>
+    <row r="282" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+    </row>
+    <row r="283" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+    </row>
+    <row r="284" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+    </row>
+    <row r="285" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+    </row>
+    <row r="286" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+    </row>
+    <row r="287" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+    </row>
+    <row r="288" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+    </row>
+    <row r="289" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+    </row>
+    <row r="290" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+    </row>
+    <row r="291" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+    </row>
+    <row r="292" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+    </row>
+    <row r="293" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+    </row>
+    <row r="294" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+    </row>
+    <row r="295" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+    </row>
+    <row r="296" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+    </row>
+    <row r="297" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+    </row>
+    <row r="298" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+      <c r="G298" s="1"/>
+    </row>
+    <row r="299" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+    </row>
+    <row r="300" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+    </row>
+    <row r="301" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+    </row>
+    <row r="302" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+    </row>
+    <row r="303" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+      <c r="G303" s="1"/>
+    </row>
+    <row r="304" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
+      <c r="G304" s="1"/>
+    </row>
+    <row r="305" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+      <c r="G305" s="1"/>
+    </row>
+    <row r="306" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+      <c r="G306" s="1"/>
+    </row>
+    <row r="307" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+      <c r="G307" s="1"/>
+    </row>
+    <row r="308" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+      <c r="G308" s="1"/>
+    </row>
+    <row r="309" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+    </row>
+    <row r="310" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+      <c r="G310" s="1"/>
+    </row>
+    <row r="311" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+      <c r="G311" s="1"/>
+    </row>
+    <row r="312" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+      <c r="G312" s="1"/>
+    </row>
+    <row r="313" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
+      <c r="G313" s="1"/>
+    </row>
+    <row r="314" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+      <c r="G314" s="1"/>
+    </row>
+    <row r="315" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
+      <c r="G315" s="1"/>
+    </row>
+    <row r="316" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+      <c r="F316" s="1"/>
+      <c r="G316" s="1"/>
+    </row>
+    <row r="317" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+      <c r="G317" s="1"/>
+    </row>
+    <row r="318" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
+      <c r="G318" s="1"/>
+    </row>
+    <row r="319" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+      <c r="F319" s="1"/>
+      <c r="G319" s="1"/>
+    </row>
+    <row r="320" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+      <c r="G320" s="1"/>
+    </row>
+    <row r="321" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
+      <c r="G321" s="1"/>
+    </row>
+    <row r="322" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C322" s="1"/>
+      <c r="D322" s="1"/>
+      <c r="E322" s="1"/>
+      <c r="F322" s="1"/>
+      <c r="G322" s="1"/>
+    </row>
+    <row r="323" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1"/>
+      <c r="F323" s="1"/>
+      <c r="G323" s="1"/>
+    </row>
+    <row r="324" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
+      <c r="F324" s="1"/>
+      <c r="G324" s="1"/>
+    </row>
+    <row r="325" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
+      <c r="G325" s="1"/>
+    </row>
+    <row r="326" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+      <c r="F326" s="1"/>
+      <c r="G326" s="1"/>
+    </row>
+    <row r="327" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
+      <c r="G327" s="1"/>
+    </row>
+    <row r="328" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
+      <c r="G328" s="1"/>
+    </row>
+    <row r="329" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
+      <c r="G329" s="1"/>
+    </row>
+    <row r="330" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1"/>
+      <c r="G330" s="1"/>
+    </row>
+    <row r="331" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+      <c r="F331" s="1"/>
+      <c r="G331" s="1"/>
+    </row>
+    <row r="332" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+      <c r="F332" s="1"/>
+      <c r="G332" s="1"/>
+    </row>
+    <row r="333" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+      <c r="G333" s="1"/>
+    </row>
+    <row r="334" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+      <c r="F334" s="1"/>
+      <c r="G334" s="1"/>
+    </row>
+    <row r="335" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
+      <c r="G335" s="1"/>
+    </row>
+    <row r="336" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+      <c r="G336" s="1"/>
+    </row>
+    <row r="337" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
+      <c r="G337" s="1"/>
+    </row>
+    <row r="338" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="F338" s="1"/>
+      <c r="G338" s="1"/>
+    </row>
+    <row r="339" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+      <c r="F339" s="1"/>
+      <c r="G339" s="1"/>
+    </row>
+    <row r="340" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="F340" s="1"/>
+      <c r="G340" s="1"/>
+    </row>
+    <row r="341" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
+      <c r="G341" s="1"/>
+    </row>
+    <row r="342" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
+      <c r="G342" s="1"/>
+    </row>
+    <row r="343" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
+      <c r="G343" s="1"/>
+    </row>
+    <row r="344" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+      <c r="G344" s="1"/>
+    </row>
+    <row r="345" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
+    </row>
+    <row r="346" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+      <c r="G346" s="1"/>
+    </row>
+    <row r="347" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+      <c r="F347" s="1"/>
+      <c r="G347" s="1"/>
+    </row>
+    <row r="348" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+      <c r="F348" s="1"/>
+      <c r="G348" s="1"/>
+    </row>
+    <row r="349" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
+    </row>
+    <row r="350" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
+    </row>
+    <row r="351" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
+      <c r="G351" s="1"/>
+    </row>
+    <row r="352" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+      <c r="G352" s="1"/>
+    </row>
+    <row r="353" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+      <c r="G353" s="1"/>
+    </row>
+    <row r="354" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
+    </row>
+    <row r="355" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
+      <c r="F355" s="1"/>
+      <c r="G355" s="1"/>
+    </row>
+    <row r="356" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1"/>
+      <c r="F356" s="1"/>
+      <c r="G356" s="1"/>
+    </row>
+    <row r="357" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+      <c r="G357" s="1"/>
+    </row>
+    <row r="358" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="1"/>
+      <c r="F358" s="1"/>
+      <c r="G358" s="1"/>
+    </row>
+    <row r="359" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
+      <c r="E359" s="1"/>
+      <c r="F359" s="1"/>
+      <c r="G359" s="1"/>
+    </row>
+    <row r="360" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C360" s="1"/>
+      <c r="D360" s="1"/>
+      <c r="E360" s="1"/>
+      <c r="F360" s="1"/>
+      <c r="G360" s="1"/>
+    </row>
+    <row r="361" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="1"/>
+      <c r="F361" s="1"/>
+      <c r="G361" s="1"/>
+    </row>
+    <row r="362" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="1"/>
+      <c r="F362" s="1"/>
+      <c r="G362" s="1"/>
+    </row>
+    <row r="363" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="1"/>
+      <c r="F363" s="1"/>
+      <c r="G363" s="1"/>
+    </row>
+    <row r="364" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
+      <c r="E364" s="1"/>
+      <c r="F364" s="1"/>
+      <c r="G364" s="1"/>
+    </row>
+    <row r="365" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C365" s="1"/>
+      <c r="D365" s="1"/>
+      <c r="E365" s="1"/>
+      <c r="F365" s="1"/>
+      <c r="G365" s="1"/>
+    </row>
+    <row r="366" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C366" s="1"/>
+      <c r="D366" s="1"/>
+      <c r="E366" s="1"/>
+      <c r="F366" s="1"/>
+      <c r="G366" s="1"/>
+    </row>
+    <row r="367" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C367" s="1"/>
+      <c r="D367" s="1"/>
+      <c r="E367" s="1"/>
+      <c r="F367" s="1"/>
+      <c r="G367" s="1"/>
+    </row>
+    <row r="368" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C368" s="1"/>
+      <c r="D368" s="1"/>
+      <c r="E368" s="1"/>
+      <c r="F368" s="1"/>
+      <c r="G368" s="1"/>
+    </row>
+    <row r="369" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C369" s="1"/>
+      <c r="D369" s="1"/>
+      <c r="E369" s="1"/>
+      <c r="F369" s="1"/>
+      <c r="G369" s="1"/>
+    </row>
+    <row r="370" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C370" s="1"/>
+      <c r="D370" s="1"/>
+      <c r="E370" s="1"/>
+      <c r="F370" s="1"/>
+      <c r="G370" s="1"/>
+    </row>
+    <row r="371" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C371" s="1"/>
+      <c r="D371" s="1"/>
+      <c r="E371" s="1"/>
+      <c r="F371" s="1"/>
+      <c r="G371" s="1"/>
+    </row>
+    <row r="372" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C372" s="1"/>
+      <c r="D372" s="1"/>
+      <c r="E372" s="1"/>
+      <c r="F372" s="1"/>
+      <c r="G372" s="1"/>
+    </row>
+    <row r="373" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C373" s="1"/>
+      <c r="D373" s="1"/>
+      <c r="E373" s="1"/>
+      <c r="F373" s="1"/>
+      <c r="G373" s="1"/>
+    </row>
+    <row r="374" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C374" s="1"/>
+      <c r="D374" s="1"/>
+      <c r="E374" s="1"/>
+      <c r="F374" s="1"/>
+      <c r="G374" s="1"/>
+    </row>
+    <row r="375" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="1"/>
+      <c r="F375" s="1"/>
+      <c r="G375" s="1"/>
+    </row>
+    <row r="376" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C376" s="1"/>
+      <c r="D376" s="1"/>
+      <c r="E376" s="1"/>
+      <c r="F376" s="1"/>
+      <c r="G376" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="C66:F67"/>
+    <mergeCell ref="D232:F233"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0BC10C-8BE0-4AEE-9B44-5F6418BA2551}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:F15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="22.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+    </row>
+    <row r="6" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="28">
+        <v>220</v>
+      </c>
+      <c r="E6" s="38">
+        <v>180</v>
+      </c>
+      <c r="F6" s="38">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="28">
+        <v>270</v>
+      </c>
+      <c r="E7" s="38">
+        <v>230</v>
+      </c>
+      <c r="F7" s="38">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="28">
+        <v>320</v>
+      </c>
+      <c r="E8" s="38">
+        <v>280</v>
+      </c>
+      <c r="F8" s="38">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="28">
+        <v>370</v>
+      </c>
+      <c r="E9" s="38">
+        <v>230</v>
+      </c>
+      <c r="F9" s="38">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="28">
+        <v>420</v>
+      </c>
+      <c r="E10" s="38">
+        <v>380</v>
+      </c>
+      <c r="F10" s="38">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="29">
+        <v>1600</v>
+      </c>
+      <c r="E12" s="29">
+        <v>1300</v>
+      </c>
+      <c r="F12" s="29">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0AE2ED-FE68-4EEC-AE18-6BD5E26CC6A5}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="26">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1300</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="13">
+        <v>23</v>
+      </c>
+      <c r="G6" s="14">
+        <v>12000</v>
+      </c>
+      <c r="H6" s="13">
+        <f>G6*F6</f>
+        <v>276000</v>
+      </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E7" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="13">
+        <v>212</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1200</v>
+      </c>
+      <c r="H7" s="13">
+        <f t="shared" ref="H7:H12" si="0">G7*F7</f>
+        <v>254400</v>
+      </c>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="57"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="56">
+        <f>SUM(H6:H12)</f>
+        <v>530400</v>
+      </c>
+      <c r="F15" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1432E7-FA3C-4B22-A5DA-B1D1020AF038}">
+  <dimension ref="C2:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>M11</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="1">
+        <v>180</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" s="1">
+        <v>150</v>
+      </c>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="1">
+        <v>230</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" s="1">
+        <v>5</v>
+      </c>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>M11</f>
+        <v>750</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="1">
+        <v>280</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="1">
+        <f>M9*M10</f>
+        <v>750</v>
+      </c>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <f t="dataTable" ref="D12:D15" dt2D="0" dtr="0" r1="M10" ca="1"/>
+        <v>1200</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="1">
+        <v>230</v>
+      </c>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>1350</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="1">
+        <v>380</v>
+      </c>
+      <c r="L13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22">
+        <v>160</v>
+      </c>
+      <c r="O13">
+        <v>185</v>
+      </c>
+      <c r="P13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>1800</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="1">
+        <f>SUM(I9:I13)</f>
+        <v>1300</v>
+      </c>
+      <c r="M14" s="22">
+        <f>M11</f>
+        <v>750</v>
+      </c>
+      <c r="N14" s="22">
+        <f t="dataTable" ref="N14:P14" dt2D="0" dtr="1" r1="M9" ca="1"/>
+        <v>800</v>
+      </c>
+      <c r="O14">
+        <v>925</v>
+      </c>
+      <c r="P14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>2250</v>
+      </c>
+      <c r="H15" s="40"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="22" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>153</v>
+      </c>
+      <c r="J23">
+        <v>160</v>
+      </c>
+      <c r="K23">
+        <v>185</v>
+      </c>
+      <c r="L23">
+        <v>220</v>
+      </c>
+      <c r="M23">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f>M11</f>
+        <v>750</v>
+      </c>
+      <c r="J24">
+        <f t="dataTable" ref="J24:M24" dt2D="0" dtr="1" r1="M9"/>
+        <v>800</v>
+      </c>
+      <c r="K24">
+        <v>925</v>
+      </c>
+      <c r="L24">
+        <v>1100</v>
+      </c>
+      <c r="M24">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
+  <scenarios current="0" show="0" sqref="I14">
+    <scenario name="low" locked="1" count="5" user="kinza" comment="Created by kinza on 20-06-2022">
+      <inputCells r="I9" val="180"/>
+      <inputCells r="I10" val="230"/>
+      <inputCells r="I11" val="280"/>
+      <inputCells r="I12" val="230"/>
+      <inputCells r="I13" val="380"/>
+    </scenario>
+    <scenario name="high" locked="1" count="5" user="kinza" comment="Created by kinza on 20-06-2022">
+      <inputCells r="I9" val="220"/>
+      <inputCells r="I10" val="270"/>
+      <inputCells r="I11" val="320"/>
+      <inputCells r="I12" val="370"/>
+      <inputCells r="I13" val="420"/>
+    </scenario>
+  </scenarios>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADACBA98-E7DC-49AE-9D29-1000C174CEF9}">
+  <dimension ref="E3:Q22"/>
+  <sheetViews>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19:Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="13" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E3" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E4" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="22">
+        <v>23</v>
+      </c>
+      <c r="G4" s="22">
+        <v>3400</v>
+      </c>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E5" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="22">
+        <v>3</v>
+      </c>
+      <c r="G5" s="22">
+        <v>5</v>
+      </c>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E6" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="22">
+        <v>5</v>
+      </c>
+      <c r="G6" s="22">
+        <v>6</v>
+      </c>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E7" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="22">
+        <v>7</v>
+      </c>
+      <c r="G7" s="22">
+        <v>7</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54">
+        <f t="shared" ref="O7" si="0">N7*M7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E8" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="22">
+        <v>8</v>
+      </c>
+      <c r="G8" s="22">
+        <v>54</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53">
+        <f>N8*M8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E9" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="22">
+        <v>9</v>
+      </c>
+      <c r="G9" s="22">
+        <v>3</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53">
+        <f t="shared" ref="O9:O13" si="1">N9*M9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E10" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="22">
+        <v>4</v>
+      </c>
+      <c r="G10" s="22">
+        <v>2</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E11" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="22">
+        <v>6</v>
+      </c>
+      <c r="G11" s="22">
+        <v>14</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="22">
+        <v>5</v>
+      </c>
+      <c r="G12" s="22">
+        <v>5</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E13" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="22">
+        <v>4</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E14" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="22">
+        <v>37</v>
+      </c>
+      <c r="G14" s="22">
+        <v>6</v>
+      </c>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E15" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="22">
+        <v>80</v>
+      </c>
+      <c r="G15" s="22">
+        <v>5</v>
+      </c>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E16" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="22">
+        <v>9</v>
+      </c>
+      <c r="G16" s="22">
+        <v>43</v>
+      </c>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E17" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="22">
+        <v>76</v>
+      </c>
+      <c r="G17" s="22">
+        <v>3</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>155</v>
+      </c>
+      <c r="M18">
+        <f>L18*K18</f>
+        <v>775</v>
+      </c>
+      <c r="P18" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q18">
+        <f>M18</f>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>155</v>
+      </c>
+      <c r="Q19">
+        <f t="dataTable" ref="Q19:Q22" dt2D="0" dtr="1" r1="L18" ca="1"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>230</v>
+      </c>
+      <c r="Q20">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21">
+        <v>178</v>
+      </c>
+      <c r="J21">
+        <v>185</v>
+      </c>
+      <c r="K21">
+        <v>205</v>
+      </c>
+      <c r="L21">
+        <v>219</v>
+      </c>
+      <c r="P21">
+        <v>245</v>
+      </c>
+      <c r="Q21">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f>M18</f>
+        <v>775</v>
+      </c>
+      <c r="I22">
+        <f t="dataTable" ref="I22:L22" dt2D="0" dtr="1" r1="L18" ca="1"/>
+        <v>890</v>
+      </c>
+      <c r="J22">
+        <v>925</v>
+      </c>
+      <c r="K22">
+        <v>1025</v>
+      </c>
+      <c r="L22">
+        <v>1095</v>
+      </c>
+      <c r="P22">
+        <v>275</v>
+      </c>
+      <c r="Q22">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F15425-44A7-40E3-A1B2-1D798742DCE1}">
+  <dimension ref="F4:P10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P5">
+        <f>K6</f>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="6" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>165</v>
+      </c>
+      <c r="K6" s="1">
+        <f>J6*I6</f>
+        <v>825</v>
+      </c>
+      <c r="O6">
+        <v>167</v>
+      </c>
+      <c r="P6">
+        <f t="dataTable" ref="P6:P9" dt2D="0" dtr="0" r1="J6" ca="1"/>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="7" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>193</v>
+      </c>
+      <c r="P7">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="8" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>215</v>
+      </c>
+      <c r="P8">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="9" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9">
+        <v>167</v>
+      </c>
+      <c r="I9">
+        <v>185</v>
+      </c>
+      <c r="J9">
+        <v>197</v>
+      </c>
+      <c r="K9">
+        <v>213</v>
+      </c>
+      <c r="O9">
+        <v>134</v>
+      </c>
+      <c r="P9">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="10" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f>K6</f>
+        <v>825</v>
+      </c>
+      <c r="H10">
+        <f t="dataTable" ref="H10:K10" dt2D="0" dtr="1" r1="J6"/>
+        <v>835</v>
+      </c>
+      <c r="I10">
+        <v>925</v>
+      </c>
+      <c r="J10">
+        <v>985</v>
+      </c>
+      <c r="K10">
+        <v>1065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4833BF61-508E-480A-8727-4A9F0557163D}">
+  <dimension ref="F4:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="63"/>
+    </row>
+    <row r="7" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="47"/>
+    </row>
+    <row r="8" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="47"/>
+    </row>
+    <row r="9" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAE6B81-2E40-4834-85D7-7E49738C5E1D}">
+  <dimension ref="D4:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="63">
+        <v>44714</v>
+      </c>
+      <c r="E5" s="47">
+        <v>1</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="47">
+        <v>25000</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="63">
+        <v>44714</v>
+      </c>
+      <c r="E6" s="47">
+        <v>1</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="47">
+        <v>25000</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="63">
+        <v>44715</v>
+      </c>
+      <c r="E7" s="47">
+        <v>2</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="47">
+        <v>35000</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="64" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="63">
+        <v>44716</v>
+      </c>
+      <c r="E8" s="47">
+        <v>4</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="47">
+        <v>20000</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{BE8C3BAB-3B9C-469C-9955-3ACD2EA5B0BE}"/>
+    <hyperlink ref="I6" r:id="rId2" xr:uid="{2582AAFA-99A0-49EE-8C1C-5D24D4C42263}"/>
+    <hyperlink ref="I7" r:id="rId3" xr:uid="{D308D512-D4C2-4BC7-B691-107C6898E7E3}"/>
+    <hyperlink ref="I8" r:id="rId4" xr:uid="{9600744B-771E-456A-BC83-060F3B7C8188}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF42C540-6E78-4A0E-A59A-954DEA3C6670}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,50 +7229,50 @@
   <sheetData>
     <row r="3" spans="3:17" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="19"/>
-      <c r="M4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="19"/>
-      <c r="P4" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q4" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="55"/>
+      <c r="M4" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="55"/>
+      <c r="P4" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="55"/>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C5" s="12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E5" s="13">
         <v>5</v>
@@ -2326,19 +7284,19 @@
         <f>Table2[[#This Row],[Price]]*Table2[[#This Row],[Quantity]]</f>
         <v>335000</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E6" s="13">
         <v>54</v>
@@ -2353,10 +7311,10 @@
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E7" s="13">
         <v>4</v>
@@ -2371,10 +7329,10 @@
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E8" s="13">
         <v>3</v>
@@ -2389,10 +7347,10 @@
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="E9" s="13">
         <v>2</v>
@@ -2407,10 +7365,10 @@
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C10" s="12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E10" s="13">
         <v>12</v>
@@ -2423,18 +7381,18 @@
         <v>216000</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E11" s="13">
         <v>3</v>
@@ -2447,18 +7405,18 @@
         <v>2400</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M11" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E12" s="13">
         <v>2</v>
@@ -2473,10 +7431,10 @@
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C13" s="15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E13" s="16">
         <v>12</v>
@@ -2499,183 +7457,1091 @@
     <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <conditionalFormatting sqref="C5 C10:C13 C7:C8">
-    <cfRule type="expression" dxfId="33" priority="12">
-      <formula>C5=$J$5</formula>
+    <cfRule type="expression" dxfId="13" priority="4">
+      <formula>$C5=$M$11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="3">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>C5=$J$11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="2">
-      <formula>$C5=$M$11</formula>
+    <cfRule type="expression" dxfId="11" priority="14">
+      <formula>C5=$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:K5">
-    <cfRule type="notContainsBlanks" dxfId="43" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="10">
       <formula>LEN(TRIM(J5))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="42" priority="11">
+    <cfRule type="containsBlanks" dxfId="9" priority="13">
       <formula>LEN(TRIM(J5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:N5">
-    <cfRule type="containsBlanks" dxfId="41" priority="9">
+    <cfRule type="containsBlanks" dxfId="8" priority="11">
       <formula>LEN(TRIM(M5))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="40" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="12">
       <formula>LEN(TRIM(M5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5 C10:G13 D9:G9 C7:G8 D6:G6">
-    <cfRule type="expression" dxfId="39" priority="7">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$C5=$M$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5:Q5">
-    <cfRule type="containsBlanks" dxfId="38" priority="5">
+    <cfRule type="containsBlanks" dxfId="5" priority="7">
       <formula>LEN(TRIM(P5))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="37" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="8">
       <formula>LEN(TRIM(P5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G5 C10:G13 D9:G9 C7:G8 D6:G6">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>C$4=$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$C5=$M$11</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C5:G13">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C5=$M$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C13">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>C5=$J$11</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:K5 M5:N5 J11 M11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:K5 M5:N5 J11 M11" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$C$5:$C$13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:Q5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:Q5" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$C$4:$G$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C5:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E8" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="D15" s="21" t="s">
         <v>68</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
+        <v>51</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$C$5:$F$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>INDIRECT($C$16)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="D2:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="1">
+        <v>12000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7000</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45000</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>32000</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="1">
+        <v>27000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>12000</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="1">
+        <v>12000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G9" s="1">
+        <v>24000</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>23000</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="1">
+        <v>23000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>24000</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="26">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="26">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="26">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="26">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="26">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J17" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="26">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="26">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J19" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="26">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J20" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="26">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J21" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="26">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J22" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="26">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="23" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J23" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="26">
+        <v>131200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373F5AB6-75DC-47E7-8FDA-BA0F61DAC918}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF70189-580B-4C0B-BDFB-9FE9B63823E7}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:F15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="22.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+    </row>
+    <row r="6" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="28">
+        <v>200</v>
+      </c>
+      <c r="E6" s="38">
+        <v>180</v>
+      </c>
+      <c r="F6" s="38">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="28">
+        <v>250</v>
+      </c>
+      <c r="E7" s="38">
+        <v>230</v>
+      </c>
+      <c r="F7" s="38">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="28">
+        <v>300</v>
+      </c>
+      <c r="E8" s="38">
+        <v>280</v>
+      </c>
+      <c r="F8" s="38">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="28">
+        <v>350</v>
+      </c>
+      <c r="E9" s="38">
+        <v>230</v>
+      </c>
+      <c r="F9" s="38">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="28">
+        <v>400</v>
+      </c>
+      <c r="E10" s="38">
+        <v>380</v>
+      </c>
+      <c r="F10" s="38">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="29">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="29">
+        <v>1300</v>
+      </c>
+      <c r="F12" s="29">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0653D6E6-2DE9-475C-B2A7-E7884B2906EF}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:F15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="22.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+    </row>
+    <row r="6" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="28">
+        <v>220</v>
+      </c>
+      <c r="E6" s="38">
+        <v>180</v>
+      </c>
+      <c r="F6" s="38">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="28">
+        <v>270</v>
+      </c>
+      <c r="E7" s="38">
+        <v>230</v>
+      </c>
+      <c r="F7" s="38">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="28">
+        <v>320</v>
+      </c>
+      <c r="E8" s="38">
+        <v>280</v>
+      </c>
+      <c r="F8" s="38">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="28">
+        <v>370</v>
+      </c>
+      <c r="E9" s="38">
+        <v>230</v>
+      </c>
+      <c r="F9" s="38">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="28">
+        <v>420</v>
+      </c>
+      <c r="E10" s="38">
+        <v>380</v>
+      </c>
+      <c r="F10" s="38">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="29">
+        <v>1600</v>
+      </c>
+      <c r="E12" s="29">
+        <v>1300</v>
+      </c>
+      <c r="F12" s="29">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2746AA1E-15EA-4D55-8691-F128AE5D763E}">
+  <dimension ref="B3:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="9" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1">
+        <v>23400</v>
+      </c>
+      <c r="D4" s="1">
+        <v>79000</v>
+      </c>
+      <c r="E4" s="6">
+        <v>34000</v>
+      </c>
+      <c r="F4" s="6">
+        <v>23007</v>
+      </c>
+      <c r="G4" s="6">
+        <v>23451</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="1">
+        <v>34000</v>
+      </c>
+      <c r="D5" s="43">
+        <v>45000</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45300</v>
+      </c>
+      <c r="D6" s="43">
+        <v>34000</v>
+      </c>
+      <c r="E6" s="46">
+        <v>45600</v>
+      </c>
+      <c r="F6" s="47">
+        <v>34211</v>
+      </c>
+      <c r="G6" s="49">
+        <v>5600</v>
+      </c>
+      <c r="H6" s="47">
+        <f>G6*F6</f>
+        <v>191581600</v>
+      </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="1">
+        <v>34222</v>
+      </c>
+      <c r="D7" s="43">
+        <v>12345</v>
+      </c>
+      <c r="E7" s="46">
+        <v>12345</v>
+      </c>
+      <c r="F7" s="47">
+        <v>23450</v>
+      </c>
+      <c r="G7" s="49">
+        <v>12345</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D8" s="43">
+        <v>6755</v>
+      </c>
+      <c r="E8" s="46">
+        <v>23459</v>
+      </c>
+      <c r="F8" s="47">
+        <v>23411</v>
+      </c>
+      <c r="G8" s="49">
+        <v>43210</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45699</v>
+      </c>
+      <c r="D9" s="43">
+        <v>45600</v>
+      </c>
+      <c r="E9" s="46">
+        <v>7800</v>
+      </c>
+      <c r="F9" s="47">
+        <v>34221</v>
+      </c>
+      <c r="G9" s="49">
+        <v>34221</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="57"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="56">
+        <f>SUM(H6:H12)</f>
+        <v>191581600</v>
+      </c>
+      <c r="F15" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>